--- a/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_VPaco.0.xlsx
+++ b/BP_Budget Previsionnel/BM_Budget Massique/Budget massique_VPaco.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7DD0B3-702C-472B-99A3-FECAA5778BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,9 +154,6 @@
     <t>Crashbox</t>
   </si>
   <si>
-    <t>Carrosserie (Nez-Plaques latérales-Fond plat-Ouïes pare feu)</t>
-  </si>
-  <si>
     <t>Equiped Wheel + Rims</t>
   </si>
   <si>
@@ -164,11 +162,14 @@
   <si>
     <t>Brake system + Pedals</t>
   </si>
+  <si>
+    <t>Carrosserie (Nez-Plaques latérales-Fond plat-Ouïes-Pare feu)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,14 +419,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,13 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -466,7 +467,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -514,7 +515,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,7 +569,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A286-490A-9E38-28CE4AE9CBBE}"/>
               </c:ext>
@@ -589,7 +589,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-A286-490A-9E38-28CE4AE9CBBE}"/>
               </c:ext>
@@ -609,7 +609,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-A286-490A-9E38-28CE4AE9CBBE}"/>
               </c:ext>
@@ -629,7 +629,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-A286-490A-9E38-28CE4AE9CBBE}"/>
               </c:ext>
@@ -680,7 +680,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -691,7 +691,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -716,7 +715,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A286-490A-9E38-28CE4AE9CBBE}"/>
             </c:ext>
@@ -743,14 +742,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -786,7 +785,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -829,7 +828,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,7 +879,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-67EB-4F7B-9B4B-F384C33D7990}"/>
               </c:ext>
@@ -901,7 +899,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-67EB-4F7B-9B4B-F384C33D7990}"/>
               </c:ext>
@@ -921,7 +919,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-67EB-4F7B-9B4B-F384C33D7990}"/>
               </c:ext>
@@ -941,7 +939,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-67EB-4F7B-9B4B-F384C33D7990}"/>
               </c:ext>
@@ -992,7 +990,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -1003,7 +1001,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1020,7 +1017,7 @@
                   <c:v>46.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.079999999999991</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1028,7 +1025,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-67EB-4F7B-9B4B-F384C33D7990}"/>
             </c:ext>
@@ -1055,14 +1052,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1098,7 +1095,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1141,7 +1138,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1150,26 +1146,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1184,7 +1160,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1193,7 +1169,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1146-4F81-A7B8-90995B46971E}"/>
               </c:ext>
@@ -1204,7 +1180,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1213,7 +1189,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1146-4F81-A7B8-90995B46971E}"/>
               </c:ext>
@@ -1224,7 +1200,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1233,7 +1209,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-1146-4F81-A7B8-90995B46971E}"/>
               </c:ext>
@@ -1244,7 +1220,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1253,12 +1229,45 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-1146-4F81-A7B8-90995B46971E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Feuil1!$F$59:$F$62</c:f>
@@ -1272,7 +1281,7 @@
                   <c:v>64.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.079999999999991</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1280,7 +1289,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-1146-4F81-A7B8-90995B46971E}"/>
             </c:ext>
@@ -1307,14 +1316,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1350,7 +1359,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1393,7 +1402,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1445,7 +1453,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-813E-4721-B80F-0CA6186057E3}"/>
               </c:ext>
@@ -1465,7 +1473,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-813E-4721-B80F-0CA6186057E3}"/>
               </c:ext>
@@ -1485,7 +1493,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-813E-4721-B80F-0CA6186057E3}"/>
               </c:ext>
@@ -1505,7 +1513,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-813E-4721-B80F-0CA6186057E3}"/>
               </c:ext>
@@ -1556,7 +1564,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -1567,7 +1575,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1584,7 +1591,7 @@
                   <c:v>46.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.414999999999999</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1592,7 +1599,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-813E-4721-B80F-0CA6186057E3}"/>
             </c:ext>
@@ -1619,14 +1626,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1662,7 +1669,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -1705,7 +1712,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1757,7 +1763,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-02C8-435F-A6E6-66330DAE4A4A}"/>
               </c:ext>
@@ -1777,7 +1783,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-02C8-435F-A6E6-66330DAE4A4A}"/>
               </c:ext>
@@ -1797,7 +1803,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-02C8-435F-A6E6-66330DAE4A4A}"/>
               </c:ext>
@@ -1817,7 +1823,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-02C8-435F-A6E6-66330DAE4A4A}"/>
               </c:ext>
@@ -1868,7 +1874,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -1879,7 +1885,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1896,7 +1901,7 @@
                   <c:v>64.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.414999999999999</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -1904,7 +1909,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-02C8-435F-A6E6-66330DAE4A4A}"/>
             </c:ext>
@@ -1931,14 +1936,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1974,7 +1979,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2022,7 +2027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2074,7 +2078,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0BA9-4B21-9807-B98C16BE1A9C}"/>
               </c:ext>
@@ -2094,7 +2098,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0BA9-4B21-9807-B98C16BE1A9C}"/>
               </c:ext>
@@ -2114,7 +2118,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0BA9-4B21-9807-B98C16BE1A9C}"/>
               </c:ext>
@@ -2134,7 +2138,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0BA9-4B21-9807-B98C16BE1A9C}"/>
               </c:ext>
@@ -2185,7 +2189,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="wedgeRectCallout">
@@ -2196,7 +2200,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2221,7 +2224,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0BA9-4B21-9807-B98C16BE1A9C}"/>
             </c:ext>
@@ -2248,14 +2251,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2490,46 +2493,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4607,525 +4570,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5664,7 +5108,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{507A76EC-2183-4100-AFE9-4606E8FD78C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507A76EC-2183-4100-AFE9-4606E8FD78C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5144,7 @@
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BDD778D-D14F-4B2C-A7E3-578A5C270252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDD778D-D14F-4B2C-A7E3-578A5C270252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5738,7 +5182,7 @@
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{394F8016-8C9B-44D9-8179-832D635D35BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394F8016-8C9B-44D9-8179-832D635D35BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5776,7 +5220,7 @@
         <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5E9E2EC-C1BF-448B-8467-32B84E7A590B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E9E2EC-C1BF-448B-8467-32B84E7A590B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5814,7 +5258,7 @@
         <xdr:cNvPr id="7" name="Graphique 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0068B281-6BAF-4098-9648-5AB7F4440871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0068B281-6BAF-4098-9648-5AB7F4440871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5852,7 +5296,7 @@
         <xdr:cNvPr id="8" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69B293C9-3E0A-425A-B6BA-7851ABF66FD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B293C9-3E0A-425A-B6BA-7851ABF66FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6137,29 +5581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6168,20 +5612,20 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -6192,7 +5636,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -6209,7 +5653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -6226,7 +5670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -6243,7 +5687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6260,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -6277,7 +5721,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -6294,7 +5738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -6315,8 +5759,8 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -6326,21 +5770,21 @@
       <c r="E15" s="1"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
@@ -6356,7 +5800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
@@ -6366,7 +5810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6376,7 +5820,7 @@
       <c r="C19" s="5">
         <v>31.5</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="25">
         <v>37</v>
       </c>
       <c r="E19" s="6">
@@ -6386,7 +5830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -6396,11 +5840,11 @@
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -6411,7 +5855,7 @@
       <c r="C21" s="5">
         <v>4.5</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <f>7.25-2.3</f>
         <v>4.95</v>
       </c>
@@ -6422,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -6442,7 +5886,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -6462,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -6482,9 +5926,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>17.030999999999999</v>
@@ -6492,7 +5936,7 @@
       <c r="C25" s="5">
         <v>7.4109999999999996</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>9.3829999999999991</v>
       </c>
       <c r="E25" s="6">
@@ -6502,7 +5946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -6522,7 +5966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -6542,7 +5986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
@@ -6567,8 +6011,8 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>24</v>
       </c>
@@ -6578,21 +6022,21 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
@@ -6608,7 +6052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
@@ -6629,9 +6073,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -6643,16 +6087,15 @@
         <v>23.6</v>
       </c>
       <c r="E35" s="27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="27">
-        <f>0.85*E35</f>
-        <v>17.849999999999998</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="12">
         <v>7.1</v>
@@ -6664,14 +6107,13 @@
         <v>5.4</v>
       </c>
       <c r="E36" s="27">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F36" s="27">
-        <f t="shared" ref="E36:F40" si="2">0.85*E36</f>
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -6691,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
@@ -6708,11 +6150,10 @@
         <v>2.6</v>
       </c>
       <c r="F38" s="27">
-        <f t="shared" si="2"/>
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -6726,13 +6167,13 @@
         <v>3.8</v>
       </c>
       <c r="E39" s="27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F39" s="27">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
@@ -6746,14 +6187,13 @@
         <v>1.9</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" si="2"/>
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="F40" s="27">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
@@ -6764,20 +6204,20 @@
         <v>59.7</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:F41" si="3">SUM(D34:D40)</f>
+        <f t="shared" ref="D41:F41" si="2">SUM(D34:D40)</f>
         <v>62.599999999999994</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="3"/>
-        <v>59.414999999999999</v>
+        <f t="shared" si="2"/>
+        <v>60.1</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="3"/>
-        <v>46.079999999999991</v>
+        <f t="shared" si="2"/>
+        <v>46.2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>32</v>
       </c>
@@ -6786,20 +6226,20 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
@@ -6810,7 +6250,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -6823,7 +6263,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -6836,7 +6276,7 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
@@ -6849,7 +6289,7 @@
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
@@ -6862,7 +6302,7 @@
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -6875,7 +6315,7 @@
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>12</v>
       </c>
@@ -6892,8 +6332,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -6905,15 +6345,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="3" t="s">
         <v>3</v>
       </c>
@@ -6921,7 +6361,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
@@ -6943,7 +6383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -6961,7 +6401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>0</v>
       </c>
@@ -6992,7 +6432,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>13</v>
       </c>
@@ -7023,7 +6463,7 @@
         <v>64.84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>24</v>
       </c>
@@ -7039,22 +6479,22 @@
       </c>
       <c r="E61" s="6">
         <f>$F41</f>
-        <v>46.079999999999991</v>
+        <v>46.2</v>
       </c>
       <c r="F61" s="6">
         <f>$F41</f>
-        <v>46.079999999999991</v>
+        <v>46.2</v>
       </c>
       <c r="G61" s="6">
         <f>$E41</f>
-        <v>59.414999999999999</v>
+        <v>60.1</v>
       </c>
       <c r="H61" s="6">
         <f>$E41</f>
-        <v>59.414999999999999</v>
+        <v>60.1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>32</v>
       </c>
@@ -7085,9 +6525,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>44</v>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B63" s="6">
         <v>4</v>
@@ -7111,7 +6551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -7120,28 +6560,28 @@
         <v>237.6506</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" ref="C64:H64" si="4">SUM(C59:C63)</f>
+        <f t="shared" ref="C64:H64" si="3">SUM(C59:C63)</f>
         <v>206.00400000000002</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>205.41900000000001</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="4"/>
-        <v>180.82</v>
+        <f t="shared" si="3"/>
+        <v>180.94</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="4"/>
-        <v>198.82</v>
+        <f t="shared" si="3"/>
+        <v>198.94</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="4"/>
-        <v>194.155</v>
+        <f t="shared" si="3"/>
+        <v>194.84</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="4"/>
-        <v>212.155</v>
+        <f t="shared" si="3"/>
+        <v>212.84</v>
       </c>
     </row>
   </sheetData>
